--- a/assets/data/data2.xlsx
+++ b/assets/data/data2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eho/Desktop/bubbles_wiswo_work/bubble_chart_base_reduced/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E42810C-B3EF-754E-A949-D4137BD7500F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34CCDED-AC98-6342-88AD-C96A2ED02EA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23620" yWindow="880" windowWidth="25600" windowHeight="27280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -59,6 +59,18 @@
   </si>
   <si>
     <t>bildschirmzeit</t>
+  </si>
+  <si>
+    <t>Call of Duty</t>
+  </si>
+  <si>
+    <t>League of Legends</t>
+  </si>
+  <si>
+    <t>Clash of Clans</t>
+  </si>
+  <si>
+    <t>Fifa</t>
   </si>
 </sst>
 </file>
@@ -398,7 +410,7 @@
   <dimension ref="A1:F300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -408,7 +420,7 @@
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -437,7 +449,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
         <v>15.845992958567811</v>
@@ -449,9 +461,8 @@
       <c r="E2" s="2">
         <v>1.6199638491056996</v>
       </c>
-      <c r="F2" s="3">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+      <c r="F2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -460,7 +471,7 @@
       </c>
       <c r="B3" s="3">
         <f t="shared" ref="B3:B66" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
         <v>13.751513089415122</v>
@@ -472,9 +483,8 @@
       <c r="E3" s="2">
         <v>1.706099287799014</v>
       </c>
-      <c r="F3" s="3">
-        <f t="shared" ref="F3:F66" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+      <c r="F3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -483,7 +493,7 @@
       </c>
       <c r="B4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
         <v>14.309084176022893</v>
@@ -495,9 +505,8 @@
       <c r="E4" s="2">
         <v>1.7380817203862506</v>
       </c>
-      <c r="F4" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+      <c r="F4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -506,7 +515,7 @@
       </c>
       <c r="B5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
         <v>13.505522879824255</v>
@@ -518,9 +527,8 @@
       <c r="E5" s="2">
         <v>1.7731829242781942</v>
       </c>
-      <c r="F5" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+      <c r="F5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -541,9 +549,8 @@
       <c r="E6" s="2">
         <v>1.9834141125145073</v>
       </c>
-      <c r="F6" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+      <c r="F6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -552,7 +559,7 @@
       </c>
       <c r="B7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2">
         <v>13.805947530645458</v>
@@ -564,9 +571,8 @@
       <c r="E7" s="2">
         <v>1.3812995477633554</v>
       </c>
-      <c r="F7" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+      <c r="F7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -575,7 +581,7 @@
       </c>
       <c r="B8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2">
         <v>17.098300739975819</v>
@@ -587,9 +593,8 @@
       <c r="E8" s="2">
         <v>1.1593760859953286</v>
       </c>
-      <c r="F8" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+      <c r="F8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -598,7 +603,7 @@
       </c>
       <c r="B9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2">
         <v>14.747976443164555</v>
@@ -610,9 +615,8 @@
       <c r="E9" s="2">
         <v>1.5693376188603068</v>
       </c>
-      <c r="F9" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+      <c r="F9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -621,7 +625,7 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2">
         <v>16.163582599461481</v>
@@ -633,9 +637,8 @@
       <c r="E10" s="2">
         <v>1.5504864228648878</v>
       </c>
-      <c r="F10" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+      <c r="F10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -644,7 +647,7 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2">
         <v>14.963232424004223</v>
@@ -656,9 +659,8 @@
       <c r="E11" s="2">
         <v>1.704589779994286</v>
       </c>
-      <c r="F11" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+      <c r="F11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -667,7 +669,7 @@
       </c>
       <c r="B12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2">
         <v>15.529372463876619</v>
@@ -679,9 +681,8 @@
       <c r="E12" s="2">
         <v>1.531051283873877</v>
       </c>
-      <c r="F12" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+      <c r="F12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -690,7 +691,7 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2">
         <v>17.547319912919271</v>
@@ -702,9 +703,8 @@
       <c r="E13" s="2">
         <v>1.2015067836767703</v>
       </c>
-      <c r="F13" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+      <c r="F13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -713,7 +713,7 @@
       </c>
       <c r="B14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2">
         <v>13.258966105190845</v>
@@ -725,9 +725,8 @@
       <c r="E14" s="2">
         <v>1.8358447215114706</v>
       </c>
-      <c r="F14" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+      <c r="F14" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -748,9 +747,8 @@
       <c r="E15" s="2">
         <v>1.9052036516619708</v>
       </c>
-      <c r="F15" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+      <c r="F15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -759,7 +757,7 @@
       </c>
       <c r="B16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2">
         <v>16.629663355901151</v>
@@ -771,9 +769,8 @@
       <c r="E16" s="2">
         <v>1.4966301494657741</v>
       </c>
-      <c r="F16" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+      <c r="F16" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -782,7 +779,7 @@
       </c>
       <c r="B17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2">
         <v>13.448378140393984</v>
@@ -794,9 +791,8 @@
       <c r="E17" s="2">
         <v>1.4993413769972284</v>
       </c>
-      <c r="F17" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+      <c r="F17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -805,7 +801,7 @@
       </c>
       <c r="B18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
         <v>16.065096432120555</v>
@@ -817,9 +813,8 @@
       <c r="E18" s="2">
         <v>1.5930850699270216</v>
       </c>
-      <c r="F18" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+      <c r="F18" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -828,7 +823,7 @@
       </c>
       <c r="B19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2">
         <v>17.736072767937838</v>
@@ -840,9 +835,8 @@
       <c r="E19" s="2">
         <v>1.0245866205273217</v>
       </c>
-      <c r="F19" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+      <c r="F19" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -863,9 +857,8 @@
       <c r="E20" s="2">
         <v>1.5037471565186404</v>
       </c>
-      <c r="F20" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+      <c r="F20" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -874,7 +867,7 @@
       </c>
       <c r="B21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" s="2">
         <v>15.369100337679626</v>
@@ -886,9 +879,8 @@
       <c r="E21" s="2">
         <v>1.3407340308995748</v>
       </c>
-      <c r="F21" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+      <c r="F21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -897,7 +889,7 @@
       </c>
       <c r="B22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="2">
         <v>17.45545276991847</v>
@@ -909,9 +901,8 @@
       <c r="E22" s="2">
         <v>1.0308863010376872</v>
       </c>
-      <c r="F22" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+      <c r="F22" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -920,7 +911,7 @@
       </c>
       <c r="B23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C23" s="2">
         <v>17.526563242823432</v>
@@ -932,9 +923,8 @@
       <c r="E23" s="2">
         <v>1.8259165379291331</v>
       </c>
-      <c r="F23" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+      <c r="F23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -955,9 +945,8 @@
       <c r="E24" s="2">
         <v>1.212630084093882</v>
       </c>
-      <c r="F24" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+      <c r="F24" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -978,9 +967,8 @@
       <c r="E25" s="2">
         <v>1.0107337419829761</v>
       </c>
-      <c r="F25" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+      <c r="F25" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -989,7 +977,7 @@
       </c>
       <c r="B26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="2">
         <v>18.414930448426972</v>
@@ -1001,9 +989,8 @@
       <c r="E26" s="2">
         <v>1.8267400674027825</v>
       </c>
-      <c r="F26" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+      <c r="F26" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1012,7 +999,7 @@
       </c>
       <c r="B27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" s="2">
         <v>19.40719325766527</v>
@@ -1024,9 +1011,8 @@
       <c r="E27" s="2">
         <v>1.7391362291827412</v>
       </c>
-      <c r="F27" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+      <c r="F27" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1035,7 +1021,7 @@
       </c>
       <c r="B28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28" s="2">
         <v>18.336530041125428</v>
@@ -1047,9 +1033,8 @@
       <c r="E28" s="2">
         <v>1.5872381142766936</v>
       </c>
-      <c r="F28" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+      <c r="F28" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1058,7 +1043,7 @@
       </c>
       <c r="B29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29" s="2">
         <v>20.471605747354218</v>
@@ -1070,9 +1055,8 @@
       <c r="E29" s="2">
         <v>1.5397678619369644</v>
       </c>
-      <c r="F29" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+      <c r="F29" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1081,7 +1065,7 @@
       </c>
       <c r="B30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="2">
         <v>15.523396060162813</v>
@@ -1093,9 +1077,8 @@
       <c r="E30" s="2">
         <v>1.8552068955342558</v>
       </c>
-      <c r="F30" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+      <c r="F30" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1104,7 +1087,7 @@
       </c>
       <c r="B31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="2">
         <v>15.228845775996145</v>
@@ -1116,9 +1099,8 @@
       <c r="E31" s="2">
         <v>1.5369096534389253</v>
       </c>
-      <c r="F31" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+      <c r="F31" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1127,7 +1109,7 @@
       </c>
       <c r="B32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C32" s="2">
         <v>19.614812553139153</v>
@@ -1139,9 +1121,8 @@
       <c r="E32" s="2">
         <v>1.0791668374211181</v>
       </c>
-      <c r="F32" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+      <c r="F32" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1150,7 +1131,7 @@
       </c>
       <c r="B33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" s="2">
         <v>15.053820667423953</v>
@@ -1162,9 +1143,8 @@
       <c r="E33" s="2">
         <v>1.3147454398387228</v>
       </c>
-      <c r="F33" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+      <c r="F33" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1173,7 +1153,7 @@
       </c>
       <c r="B34" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" s="2">
         <v>15.533246482567995</v>
@@ -1185,9 +1165,8 @@
       <c r="E34" s="2">
         <v>1.8241920982774293</v>
       </c>
-      <c r="F34" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+      <c r="F34" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1196,7 +1175,7 @@
       </c>
       <c r="B35" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C35" s="2">
         <v>17.206956465429634</v>
@@ -1208,9 +1187,8 @@
       <c r="E35" s="2">
         <v>1.982524809747269</v>
       </c>
-      <c r="F35" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+      <c r="F35" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1219,7 +1197,7 @@
       </c>
       <c r="B36" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C36" s="2">
         <v>18.519542234904158</v>
@@ -1231,9 +1209,8 @@
       <c r="E36" s="2">
         <v>1.982761848123352</v>
       </c>
-      <c r="F36" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+      <c r="F36" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1242,7 +1219,7 @@
       </c>
       <c r="B37" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C37" s="2">
         <v>18.876330398160338</v>
@@ -1254,9 +1231,8 @@
       <c r="E37" s="2">
         <v>1.7546122929192465</v>
       </c>
-      <c r="F37" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+      <c r="F37" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1265,7 +1241,7 @@
       </c>
       <c r="B38" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38" s="2">
         <v>15.200810010821163</v>
@@ -1277,9 +1253,8 @@
       <c r="E38" s="2">
         <v>1.2843898591610192</v>
       </c>
-      <c r="F38" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+      <c r="F38" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1288,7 +1263,7 @@
       </c>
       <c r="B39" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C39" s="2">
         <v>14.96655336225729</v>
@@ -1300,9 +1275,8 @@
       <c r="E39" s="2">
         <v>1.5494579780939672</v>
       </c>
-      <c r="F39" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+      <c r="F39" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1311,7 +1285,7 @@
       </c>
       <c r="B40" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C40" s="2">
         <v>16.526463700312888</v>
@@ -1323,9 +1297,8 @@
       <c r="E40" s="2">
         <v>1.7848796451983273</v>
       </c>
-      <c r="F40" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+      <c r="F40" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1334,7 +1307,7 @@
       </c>
       <c r="B41" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C41" s="2">
         <v>16.439230930017512</v>
@@ -1346,9 +1319,8 @@
       <c r="E41" s="2">
         <v>1.6839084190739291</v>
       </c>
-      <c r="F41" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+      <c r="F41" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1357,7 +1329,7 @@
       </c>
       <c r="B42" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C42" s="2">
         <v>19.659621931703192</v>
@@ -1369,9 +1341,8 @@
       <c r="E42" s="2">
         <v>1.4940675332518052</v>
       </c>
-      <c r="F42" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+      <c r="F42" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1380,7 +1351,7 @@
       </c>
       <c r="B43" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" s="2">
         <v>16.546566638215161</v>
@@ -1392,9 +1363,8 @@
       <c r="E43" s="2">
         <v>1.4448244315576055</v>
       </c>
-      <c r="F43" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+      <c r="F43" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1415,9 +1385,8 @@
       <c r="E44" s="2">
         <v>1.2654972832761633</v>
       </c>
-      <c r="F44" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+      <c r="F44" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1426,7 +1395,7 @@
       </c>
       <c r="B45" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45" s="2">
         <v>20.600102907472348</v>
@@ -1438,9 +1407,8 @@
       <c r="E45" s="2">
         <v>1.1873563472985711</v>
       </c>
-      <c r="F45" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+      <c r="F45" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1461,9 +1429,8 @@
       <c r="E46" s="2">
         <v>1.5763890852705988</v>
       </c>
-      <c r="F46" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+      <c r="F46" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1472,7 +1439,7 @@
       </c>
       <c r="B47" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" s="2">
         <v>19.935107238143583</v>
@@ -1484,9 +1451,8 @@
       <c r="E47" s="2">
         <v>1.1723098811725032</v>
       </c>
-      <c r="F47" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+      <c r="F47" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1495,7 +1461,7 @@
       </c>
       <c r="B48" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C48" s="2">
         <v>15.877106929046512</v>
@@ -1507,9 +1473,8 @@
       <c r="E48" s="2">
         <v>1.3916139894883834</v>
       </c>
-      <c r="F48" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+      <c r="F48" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1530,9 +1495,8 @@
       <c r="E49" s="2">
         <v>1.691695297900629</v>
       </c>
-      <c r="F49" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+      <c r="F49" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1553,9 +1517,8 @@
       <c r="E50" s="2">
         <v>1.5030799686223024</v>
       </c>
-      <c r="F50" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+      <c r="F50" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1576,9 +1539,8 @@
       <c r="E51" s="2">
         <v>1.4594718362133183</v>
       </c>
-      <c r="F51" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+      <c r="F51" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -1587,7 +1549,7 @@
       </c>
       <c r="B52" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C52" s="2">
         <v>17.536340472182395</v>
@@ -1599,9 +1561,8 @@
       <c r="E52" s="2">
         <v>1.8336353940159094</v>
       </c>
-      <c r="F52" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+      <c r="F52" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -1622,9 +1583,8 @@
       <c r="E53" s="2">
         <v>1.0615407258716949</v>
       </c>
-      <c r="F53" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+      <c r="F53" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -1633,7 +1593,7 @@
       </c>
       <c r="B54" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C54" s="2">
         <v>16.581683343050305</v>
@@ -1645,9 +1605,8 @@
       <c r="E54" s="2">
         <v>1.8481330531894939</v>
       </c>
-      <c r="F54" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+      <c r="F54" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -1668,9 +1627,8 @@
       <c r="E55" s="2">
         <v>1.3647149618278185</v>
       </c>
-      <c r="F55" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+      <c r="F55" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -1679,7 +1637,7 @@
       </c>
       <c r="B56" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C56" s="2">
         <v>18.521495625261519</v>
@@ -1691,9 +1649,8 @@
       <c r="E56" s="2">
         <v>1.3182408189123385</v>
       </c>
-      <c r="F56" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+      <c r="F56" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -1714,9 +1671,8 @@
       <c r="E57" s="2">
         <v>1.0576225659125866</v>
       </c>
-      <c r="F57" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+      <c r="F57" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -1737,9 +1693,8 @@
       <c r="E58" s="2">
         <v>1.7250225951615037</v>
       </c>
-      <c r="F58" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+      <c r="F58" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -1748,7 +1703,7 @@
       </c>
       <c r="B59" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C59" s="2">
         <v>18.359978160694737</v>
@@ -1760,9 +1715,8 @@
       <c r="E59" s="2">
         <v>1.5523781195897457</v>
       </c>
-      <c r="F59" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+      <c r="F59" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -1771,7 +1725,7 @@
       </c>
       <c r="B60" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C60" s="2">
         <v>15.298181530399296</v>
@@ -1783,9 +1737,8 @@
       <c r="E60" s="2">
         <v>1.3819188490348355</v>
       </c>
-      <c r="F60" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+      <c r="F60" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -1806,9 +1759,8 @@
       <c r="E61" s="2">
         <v>1.9455380818860324</v>
       </c>
-      <c r="F61" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+      <c r="F61" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -1817,7 +1769,7 @@
       </c>
       <c r="B62" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C62" s="2">
         <v>16.899837367014108</v>
@@ -1829,9 +1781,8 @@
       <c r="E62" s="2">
         <v>1.6707889871918575</v>
       </c>
-      <c r="F62" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+      <c r="F62" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -1840,7 +1791,7 @@
       </c>
       <c r="B63" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C63" s="2">
         <v>20.64065387889698</v>
@@ -1852,9 +1803,8 @@
       <c r="E63" s="2">
         <v>1.6966487396266152</v>
       </c>
-      <c r="F63" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+      <c r="F63" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -1863,7 +1813,7 @@
       </c>
       <c r="B64" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C64" s="2">
         <v>15.973601480599319</v>
@@ -1875,9 +1825,8 @@
       <c r="E64" s="2">
         <v>1.4426965570263133</v>
       </c>
-      <c r="F64" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+      <c r="F64" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -1886,7 +1835,7 @@
       </c>
       <c r="B65" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" s="2">
         <v>14.079658836105956</v>
@@ -1898,9 +1847,8 @@
       <c r="E65" s="2">
         <v>1.7971135492780865</v>
       </c>
-      <c r="F65" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+      <c r="F65" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -1909,7 +1857,7 @@
       </c>
       <c r="B66" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C66" s="2">
         <v>17.430887462983762</v>
@@ -1921,9 +1869,8 @@
       <c r="E66" s="2">
         <v>1.3142656922950775</v>
       </c>
-      <c r="F66" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+      <c r="F66" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -1931,22 +1878,21 @@
         <v>66</v>
       </c>
       <c r="B67" s="3">
-        <f t="shared" ref="B67:B130" ca="1" si="3">RANDBETWEEN(1,5)</f>
+        <f t="shared" ref="B67:B130" ca="1" si="2">RANDBETWEEN(1,5)</f>
         <v>2</v>
       </c>
       <c r="C67" s="2">
         <v>18.951878510336279</v>
       </c>
       <c r="D67" s="2">
-        <f t="shared" ref="D67:D130" si="4">IF(C67&lt;15,1,IF(AND(C67&gt;15,C67&lt;21),2,IF(AND(C67&gt;20,C67&lt;31),3,4)))</f>
+        <f t="shared" ref="D67:D130" si="3">IF(C67&lt;15,1,IF(AND(C67&gt;15,C67&lt;21),2,IF(AND(C67&gt;20,C67&lt;31),3,4)))</f>
         <v>2</v>
       </c>
       <c r="E67" s="2">
         <v>1.506256293887025</v>
       </c>
-      <c r="F67" s="3">
-        <f t="shared" ref="F67:F130" ca="1" si="5">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+      <c r="F67" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -1954,22 +1900,21 @@
         <v>67</v>
       </c>
       <c r="B68" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
       <c r="C68" s="2">
         <v>15.233387811736502</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E68" s="2">
         <v>1.2570739602775265</v>
       </c>
-      <c r="F68" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+      <c r="F68" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -1977,22 +1922,21 @@
         <v>68</v>
       </c>
       <c r="B69" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="C69" s="2">
         <v>20.118860540691678</v>
       </c>
       <c r="D69" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E69" s="2">
         <v>1.8019901751059426</v>
       </c>
-      <c r="F69" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+      <c r="F69" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -2000,22 +1944,21 @@
         <v>69</v>
       </c>
       <c r="B70" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="C70" s="2">
         <v>16.220728652537634</v>
       </c>
       <c r="D70" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E70" s="2">
         <v>1.8238612480609671</v>
       </c>
-      <c r="F70" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+      <c r="F70" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -2023,22 +1966,21 @@
         <v>70</v>
       </c>
       <c r="B71" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
       <c r="C71" s="2">
         <v>20.126680437794718</v>
       </c>
       <c r="D71" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E71" s="2">
         <v>1.8847190381982695</v>
       </c>
-      <c r="F71" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+      <c r="F71" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -2046,22 +1988,21 @@
         <v>71</v>
       </c>
       <c r="B72" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="C72" s="2">
         <v>19.541584819140013</v>
       </c>
       <c r="D72" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E72" s="2">
         <v>1.5314106018535563</v>
       </c>
-      <c r="F72" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+      <c r="F72" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -2069,22 +2010,21 @@
         <v>72</v>
       </c>
       <c r="B73" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
       <c r="C73" s="2">
         <v>14.765635030722782</v>
       </c>
       <c r="D73" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E73" s="2">
         <v>1.6682109326186316</v>
       </c>
-      <c r="F73" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+      <c r="F73" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -2092,22 +2032,21 @@
         <v>73</v>
       </c>
       <c r="B74" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="C74" s="2">
         <v>16.504030996656809</v>
       </c>
       <c r="D74" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E74" s="2">
         <v>1.3561208346941898</v>
       </c>
-      <c r="F74" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+      <c r="F74" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -2115,22 +2054,21 @@
         <v>74</v>
       </c>
       <c r="B75" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="C75" s="2">
         <v>20.746486491419144</v>
       </c>
       <c r="D75" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E75" s="2">
         <v>1.7082047773331792</v>
       </c>
-      <c r="F75" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+      <c r="F75" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -2138,22 +2076,21 @@
         <v>75</v>
       </c>
       <c r="B76" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="C76" s="2">
         <v>17.97638374052692</v>
       </c>
       <c r="D76" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E76" s="2">
         <v>1.9290231681969472</v>
       </c>
-      <c r="F76" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+      <c r="F76" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -2161,22 +2098,21 @@
         <v>76</v>
       </c>
       <c r="B77" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="C77" s="2">
         <v>14.624634923700402</v>
       </c>
       <c r="D77" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E77" s="2">
         <v>1.6949618161972544</v>
       </c>
-      <c r="F77" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+      <c r="F77" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -2184,22 +2120,21 @@
         <v>77</v>
       </c>
       <c r="B78" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="C78" s="2">
         <v>19.986780006913708</v>
       </c>
       <c r="D78" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E78" s="2">
         <v>1.9858477654177429</v>
       </c>
-      <c r="F78" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+      <c r="F78" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -2207,22 +2142,21 @@
         <v>78</v>
       </c>
       <c r="B79" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
       <c r="C79" s="2">
         <v>15.693444522744702</v>
       </c>
       <c r="D79" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E79" s="2">
         <v>1.2773457852574293</v>
       </c>
-      <c r="F79" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+      <c r="F79" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -2230,22 +2164,21 @@
         <v>79</v>
       </c>
       <c r="B80" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
       <c r="C80" s="2">
         <v>17.679941567519577</v>
       </c>
       <c r="D80" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E80" s="2">
         <v>1.1795137900040633</v>
       </c>
-      <c r="F80" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+      <c r="F80" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -2253,22 +2186,21 @@
         <v>80</v>
       </c>
       <c r="B81" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
       <c r="C81" s="2">
         <v>14.221584185856868</v>
       </c>
       <c r="D81" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E81" s="2">
         <v>1.4126968805489404</v>
       </c>
-      <c r="F81" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+      <c r="F81" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -2276,22 +2208,21 @@
         <v>81</v>
       </c>
       <c r="B82" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="C82" s="2">
         <v>14.974322813755292</v>
       </c>
       <c r="D82" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E82" s="2">
         <v>1.0661033269537024</v>
       </c>
-      <c r="F82" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+      <c r="F82" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -2299,22 +2230,21 @@
         <v>82</v>
       </c>
       <c r="B83" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="C83" s="2">
         <v>17.247216657717569</v>
       </c>
       <c r="D83" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E83" s="2">
         <v>1.2307428828311804</v>
       </c>
-      <c r="F83" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+      <c r="F83" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -2322,22 +2252,21 @@
         <v>83</v>
       </c>
       <c r="B84" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="C84" s="2">
         <v>14.599072418397018</v>
       </c>
       <c r="D84" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E84" s="2">
         <v>1.077068212497398</v>
       </c>
-      <c r="F84" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+      <c r="F84" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -2345,22 +2274,21 @@
         <v>84</v>
       </c>
       <c r="B85" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
       <c r="C85" s="2">
         <v>18.550282900251151</v>
       </c>
       <c r="D85" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E85" s="2">
         <v>1.2919235061974006</v>
       </c>
-      <c r="F85" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+      <c r="F85" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -2368,22 +2296,21 @@
         <v>85</v>
       </c>
       <c r="B86" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
       <c r="C86" s="2">
         <v>15.21444189428049</v>
       </c>
       <c r="D86" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E86" s="2">
         <v>1.5669870538729227</v>
       </c>
-      <c r="F86" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+      <c r="F86" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -2391,22 +2318,21 @@
         <v>86</v>
       </c>
       <c r="B87" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="C87" s="2">
         <v>14.469939128835003</v>
       </c>
       <c r="D87" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E87" s="2">
         <v>1.9587085677999445</v>
       </c>
-      <c r="F87" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+      <c r="F87" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -2414,22 +2340,21 @@
         <v>87</v>
       </c>
       <c r="B88" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="C88" s="2">
         <v>20.690170485416367</v>
       </c>
       <c r="D88" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E88" s="2">
         <v>1.3846701888386956</v>
       </c>
-      <c r="F88" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+      <c r="F88" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -2437,22 +2362,21 @@
         <v>88</v>
       </c>
       <c r="B89" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="C89" s="2">
         <v>18.152044092631712</v>
       </c>
       <c r="D89" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E89" s="2">
         <v>1.124650625517523</v>
       </c>
-      <c r="F89" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+      <c r="F89" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -2460,22 +2384,21 @@
         <v>89</v>
       </c>
       <c r="B90" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="C90" s="2">
         <v>18.045812679131579</v>
       </c>
       <c r="D90" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E90" s="2">
         <v>1.768745399631974</v>
       </c>
-      <c r="F90" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+      <c r="F90" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -2483,22 +2406,21 @@
         <v>90</v>
       </c>
       <c r="B91" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="C91" s="2">
         <v>18.43330014438515</v>
       </c>
       <c r="D91" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E91" s="2">
         <v>1.4865128444687499</v>
       </c>
-      <c r="F91" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+      <c r="F91" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -2506,22 +2428,21 @@
         <v>91</v>
       </c>
       <c r="B92" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="C92" s="2">
         <v>18.044026263584314</v>
       </c>
       <c r="D92" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E92" s="2">
         <v>1.546012772642944</v>
       </c>
-      <c r="F92" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+      <c r="F92" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -2529,22 +2450,21 @@
         <v>92</v>
       </c>
       <c r="B93" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="C93" s="2">
         <v>17.352508756688806</v>
       </c>
       <c r="D93" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E93" s="2">
         <v>1.7517690935644001</v>
       </c>
-      <c r="F93" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+      <c r="F93" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -2552,22 +2472,21 @@
         <v>93</v>
       </c>
       <c r="B94" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="C94" s="2">
         <v>17.316272399903124</v>
       </c>
       <c r="D94" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E94" s="2">
         <v>1.5122388493657235</v>
       </c>
-      <c r="F94" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+      <c r="F94" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -2575,22 +2494,21 @@
         <v>94</v>
       </c>
       <c r="B95" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
       <c r="C95" s="2">
         <v>15.836741733657426</v>
       </c>
       <c r="D95" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E95" s="2">
         <v>1.5445250937693742</v>
       </c>
-      <c r="F95" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+      <c r="F95" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -2598,22 +2516,21 @@
         <v>95</v>
       </c>
       <c r="B96" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="C96" s="2">
         <v>18.919819479613523</v>
       </c>
       <c r="D96" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E96" s="2">
         <v>1.3392456105219797</v>
       </c>
-      <c r="F96" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+      <c r="F96" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -2621,22 +2538,21 @@
         <v>96</v>
       </c>
       <c r="B97" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="C97" s="2">
         <v>20.303573391471161</v>
       </c>
       <c r="D97" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E97" s="2">
         <v>1.2226413608550648</v>
       </c>
-      <c r="F97" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+      <c r="F97" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -2644,22 +2560,21 @@
         <v>97</v>
       </c>
       <c r="B98" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="C98" s="2">
         <v>14.052075798089241</v>
       </c>
       <c r="D98" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E98" s="2">
         <v>1.6219446486129625</v>
       </c>
-      <c r="F98" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+      <c r="F98" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -2667,22 +2582,21 @@
         <v>98</v>
       </c>
       <c r="B99" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="C99" s="2">
         <v>14.871845729663836</v>
       </c>
       <c r="D99" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E99" s="2">
         <v>1.8702204345675684</v>
       </c>
-      <c r="F99" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+      <c r="F99" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -2690,22 +2604,21 @@
         <v>99</v>
       </c>
       <c r="B100" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="C100" s="2">
         <v>15.60659199320418</v>
       </c>
       <c r="D100" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E100" s="2">
         <v>1.3001720046067007</v>
       </c>
-      <c r="F100" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+      <c r="F100" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -2713,22 +2626,21 @@
         <v>100</v>
       </c>
       <c r="B101" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
       <c r="C101" s="2">
         <v>14.798233001671058</v>
       </c>
       <c r="D101" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E101" s="2">
         <v>1.1406132823450901</v>
       </c>
-      <c r="F101" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+      <c r="F101" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -2736,22 +2648,21 @@
         <v>101</v>
       </c>
       <c r="B102" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C102" s="2">
         <v>15.077399478021434</v>
       </c>
       <c r="D102" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E102" s="2">
         <v>1.3189504989647631</v>
       </c>
-      <c r="F102" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+      <c r="F102" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -2759,22 +2670,21 @@
         <v>102</v>
       </c>
       <c r="B103" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="C103" s="2">
         <v>19.725195302252761</v>
       </c>
       <c r="D103" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E103" s="2">
         <v>1.5035788908502137</v>
       </c>
-      <c r="F103" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+      <c r="F103" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -2782,22 +2692,21 @@
         <v>103</v>
       </c>
       <c r="B104" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
       <c r="C104" s="2">
         <v>17.741040380927988</v>
       </c>
       <c r="D104" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E104" s="2">
         <v>1.9396418828112942</v>
       </c>
-      <c r="F104" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+      <c r="F104" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -2805,22 +2714,21 @@
         <v>104</v>
       </c>
       <c r="B105" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="C105" s="2">
         <v>18.604018212474436</v>
       </c>
       <c r="D105" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E105" s="2">
         <v>1.8332056469871967</v>
       </c>
-      <c r="F105" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+      <c r="F105" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -2828,22 +2736,21 @@
         <v>105</v>
       </c>
       <c r="B106" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
       <c r="C106" s="2">
         <v>20.689128540935457</v>
       </c>
       <c r="D106" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E106" s="2">
         <v>1.6112794730841831</v>
       </c>
-      <c r="F106" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+      <c r="F106" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -2851,22 +2758,21 @@
         <v>106</v>
       </c>
       <c r="B107" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="C107" s="2">
         <v>18.375138636701987</v>
       </c>
       <c r="D107" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E107" s="2">
         <v>1.3755842998281587</v>
       </c>
-      <c r="F107" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+      <c r="F107" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -2874,22 +2780,21 @@
         <v>107</v>
       </c>
       <c r="B108" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="C108" s="2">
         <v>17.574731092626621</v>
       </c>
       <c r="D108" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E108" s="2">
         <v>1.5353172793565817</v>
       </c>
-      <c r="F108" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+      <c r="F108" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -2897,22 +2802,21 @@
         <v>108</v>
       </c>
       <c r="B109" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="C109" s="2">
         <v>14.698162340654029</v>
       </c>
       <c r="D109" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E109" s="2">
         <v>1.6744357030939125</v>
       </c>
-      <c r="F109" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+      <c r="F109" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -2920,22 +2824,21 @@
         <v>109</v>
       </c>
       <c r="B110" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
       <c r="C110" s="2">
         <v>18.456534008158624</v>
       </c>
       <c r="D110" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E110" s="2">
         <v>1.221288804215507</v>
       </c>
-      <c r="F110" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+      <c r="F110" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -2943,22 +2846,21 @@
         <v>110</v>
       </c>
       <c r="B111" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="C111" s="2">
         <v>14.609518072147731</v>
       </c>
       <c r="D111" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E111" s="2">
         <v>1.5365489834086423</v>
       </c>
-      <c r="F111" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+      <c r="F111" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -2966,22 +2868,21 @@
         <v>111</v>
       </c>
       <c r="B112" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="C112" s="2">
         <v>18.722377593379072</v>
       </c>
       <c r="D112" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E112" s="2">
         <v>1.2427921851803014</v>
       </c>
-      <c r="F112" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+      <c r="F112" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -2989,22 +2890,21 @@
         <v>112</v>
       </c>
       <c r="B113" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="C113" s="2">
         <v>18.35728710910449</v>
       </c>
       <c r="D113" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E113" s="2">
         <v>1.2777433724935103</v>
       </c>
-      <c r="F113" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+      <c r="F113" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -3012,22 +2912,21 @@
         <v>113</v>
       </c>
       <c r="B114" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
       <c r="C114" s="2">
         <v>14.80377067291943</v>
       </c>
       <c r="D114" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E114" s="2">
         <v>1.0517212981328248</v>
       </c>
-      <c r="F114" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+      <c r="F114" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -3035,22 +2934,21 @@
         <v>114</v>
       </c>
       <c r="B115" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C115" s="2">
         <v>20.07238297426726</v>
       </c>
       <c r="D115" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E115" s="2">
         <v>1.8192266615157056</v>
       </c>
-      <c r="F115" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+      <c r="F115" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -3058,22 +2956,21 @@
         <v>115</v>
       </c>
       <c r="B116" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="C116" s="2">
         <v>14.457651863955935</v>
       </c>
       <c r="D116" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E116" s="2">
         <v>1.0850738527759538</v>
       </c>
-      <c r="F116" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+      <c r="F116" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -3081,22 +2978,21 @@
         <v>116</v>
       </c>
       <c r="B117" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="C117" s="2">
         <v>16.749125494800541</v>
       </c>
       <c r="D117" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E117" s="2">
         <v>1.5432094046595652</v>
       </c>
-      <c r="F117" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+      <c r="F117" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -3104,22 +3000,21 @@
         <v>117</v>
       </c>
       <c r="B118" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="C118" s="2">
         <v>16.078292342513333</v>
       </c>
       <c r="D118" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E118" s="2">
         <v>1.1713831896531159</v>
       </c>
-      <c r="F118" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+      <c r="F118" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -3127,22 +3022,21 @@
         <v>118</v>
       </c>
       <c r="B119" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="C119" s="2">
         <v>14.456081829006887</v>
       </c>
       <c r="D119" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E119" s="2">
         <v>1.340682175991365</v>
       </c>
-      <c r="F119" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+      <c r="F119" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -3150,22 +3044,21 @@
         <v>119</v>
       </c>
       <c r="B120" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="C120" s="2">
         <v>14.923338965439148</v>
       </c>
       <c r="D120" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E120" s="2">
         <v>1.6202748252942527</v>
       </c>
-      <c r="F120" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+      <c r="F120" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -3173,22 +3066,21 @@
         <v>120</v>
       </c>
       <c r="B121" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="C121" s="2">
         <v>14.736155640668738</v>
       </c>
       <c r="D121" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E121" s="2">
         <v>1.7885122640449787</v>
       </c>
-      <c r="F121" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+      <c r="F121" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -3196,22 +3088,21 @@
         <v>121</v>
       </c>
       <c r="B122" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
       <c r="C122" s="2">
         <v>18.130145101816236</v>
       </c>
       <c r="D122" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E122" s="2">
         <v>1.0483899158229324</v>
       </c>
-      <c r="F122" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+      <c r="F122" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -3219,22 +3110,21 @@
         <v>122</v>
       </c>
       <c r="B123" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="C123" s="2">
         <v>17.560826253010699</v>
       </c>
       <c r="D123" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E123" s="2">
         <v>1.1834089578564675</v>
       </c>
-      <c r="F123" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+      <c r="F123" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -3242,22 +3132,21 @@
         <v>123</v>
       </c>
       <c r="B124" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="C124" s="2">
         <v>20.352089905361233</v>
       </c>
       <c r="D124" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E124" s="2">
         <v>1.7640261813920508</v>
       </c>
-      <c r="F124" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+      <c r="F124" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -3265,22 +3154,21 @@
         <v>124</v>
       </c>
       <c r="B125" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="C125" s="2">
         <v>18.403742948771754</v>
       </c>
       <c r="D125" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E125" s="2">
         <v>1.4566579941649282</v>
       </c>
-      <c r="F125" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+      <c r="F125" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -3288,22 +3176,21 @@
         <v>125</v>
       </c>
       <c r="B126" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
       <c r="C126" s="2">
         <v>18.001178318755173</v>
       </c>
       <c r="D126" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E126" s="2">
         <v>1.6632371665340056</v>
       </c>
-      <c r="F126" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+      <c r="F126" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -3311,22 +3198,21 @@
         <v>126</v>
       </c>
       <c r="B127" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="C127" s="2">
         <v>20.076211609662842</v>
       </c>
       <c r="D127" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E127" s="2">
         <v>1.1230001015689641</v>
       </c>
-      <c r="F127" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+      <c r="F127" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -3334,22 +3220,21 @@
         <v>127</v>
       </c>
       <c r="B128" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="C128" s="2">
         <v>16.895818720035667</v>
       </c>
       <c r="D128" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E128" s="2">
         <v>1.5841690492384277</v>
       </c>
-      <c r="F128" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+      <c r="F128" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -3357,22 +3242,21 @@
         <v>128</v>
       </c>
       <c r="B129" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="C129" s="2">
         <v>17.149510287527445</v>
       </c>
       <c r="D129" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E129" s="2">
         <v>1.928819059484856</v>
       </c>
-      <c r="F129" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+      <c r="F129" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -3380,22 +3264,21 @@
         <v>129</v>
       </c>
       <c r="B130" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
       <c r="C130" s="2">
         <v>16.994648958219461</v>
       </c>
       <c r="D130" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E130" s="2">
         <v>1.4979782154181005</v>
       </c>
-      <c r="F130" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+      <c r="F130" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -3403,22 +3286,21 @@
         <v>130</v>
       </c>
       <c r="B131" s="3">
-        <f t="shared" ref="B131:B194" ca="1" si="6">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <f t="shared" ref="B131:B194" ca="1" si="4">RANDBETWEEN(1,5)</f>
+        <v>3</v>
       </c>
       <c r="C131" s="2">
         <v>19.504572210991402</v>
       </c>
       <c r="D131" s="2">
-        <f t="shared" ref="D131:D194" si="7">IF(C131&lt;15,1,IF(AND(C131&gt;15,C131&lt;21),2,IF(AND(C131&gt;20,C131&lt;31),3,4)))</f>
+        <f t="shared" ref="D131:D194" si="5">IF(C131&lt;15,1,IF(AND(C131&gt;15,C131&lt;21),2,IF(AND(C131&gt;20,C131&lt;31),3,4)))</f>
         <v>2</v>
       </c>
       <c r="E131" s="2">
         <v>1.9714249082693964</v>
       </c>
-      <c r="F131" s="3">
-        <f t="shared" ref="F131:F194" ca="1" si="8">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+      <c r="F131" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -3426,22 +3308,21 @@
         <v>131</v>
       </c>
       <c r="B132" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
       </c>
       <c r="C132" s="2">
         <v>20.963954011141539</v>
       </c>
       <c r="D132" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E132" s="2">
         <v>1.2411434189886092</v>
       </c>
-      <c r="F132" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+      <c r="F132" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -3449,22 +3330,21 @@
         <v>132</v>
       </c>
       <c r="B133" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="C133" s="2">
         <v>20.935435256610809</v>
       </c>
       <c r="D133" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E133" s="2">
         <v>1.2350703001510104</v>
       </c>
-      <c r="F133" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+      <c r="F133" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -3472,22 +3352,21 @@
         <v>133</v>
       </c>
       <c r="B134" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="C134" s="2">
         <v>19.027590508039243</v>
       </c>
       <c r="D134" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E134" s="2">
         <v>1.2821244547203976</v>
       </c>
-      <c r="F134" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+      <c r="F134" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -3495,22 +3374,21 @@
         <v>134</v>
       </c>
       <c r="B135" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="C135" s="2">
         <v>16.453559165367622</v>
       </c>
       <c r="D135" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E135" s="2">
         <v>1.474190714534803</v>
       </c>
-      <c r="F135" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+      <c r="F135" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -3518,22 +3396,21 @@
         <v>135</v>
       </c>
       <c r="B136" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="C136" s="2">
         <v>16.985588853516269</v>
       </c>
       <c r="D136" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E136" s="2">
         <v>1.2887468225943854</v>
       </c>
-      <c r="F136" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+      <c r="F136" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -3541,22 +3418,21 @@
         <v>136</v>
       </c>
       <c r="B137" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
       <c r="C137" s="2">
         <v>16.237668545855794</v>
       </c>
       <c r="D137" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E137" s="2">
         <v>1.4982344247504558</v>
       </c>
-      <c r="F137" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+      <c r="F137" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -3564,22 +3440,21 @@
         <v>137</v>
       </c>
       <c r="B138" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="C138" s="2">
         <v>19.773948714902819</v>
       </c>
       <c r="D138" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E138" s="2">
         <v>1.0921216558710385</v>
       </c>
-      <c r="F138" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+      <c r="F138" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -3587,22 +3462,21 @@
         <v>138</v>
       </c>
       <c r="B139" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="C139" s="2">
         <v>16.830301349918962</v>
       </c>
       <c r="D139" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E139" s="2">
         <v>1.887954483821279</v>
       </c>
-      <c r="F139" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+      <c r="F139" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -3610,22 +3484,21 @@
         <v>139</v>
       </c>
       <c r="B140" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
       </c>
       <c r="C140" s="2">
         <v>16.905661636799376</v>
       </c>
       <c r="D140" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E140" s="2">
         <v>1.5408419180285935</v>
       </c>
-      <c r="F140" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+      <c r="F140" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -3633,22 +3506,21 @@
         <v>140</v>
       </c>
       <c r="B141" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
       <c r="C141" s="2">
         <v>17.029850799592364</v>
       </c>
       <c r="D141" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E141" s="2">
         <v>1.0762507866617215</v>
       </c>
-      <c r="F141" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+      <c r="F141" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -3656,22 +3528,21 @@
         <v>141</v>
       </c>
       <c r="B142" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
       <c r="C142" s="2">
         <v>20.57662776792214</v>
       </c>
       <c r="D142" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E142" s="2">
         <v>1.9387833082630839</v>
       </c>
-      <c r="F142" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+      <c r="F142" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -3679,22 +3550,21 @@
         <v>142</v>
       </c>
       <c r="B143" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
       <c r="C143" s="2">
         <v>20.470669096508793</v>
       </c>
       <c r="D143" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E143" s="2">
         <v>1.1508400528497584</v>
       </c>
-      <c r="F143" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+      <c r="F143" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -3702,22 +3572,21 @@
         <v>143</v>
       </c>
       <c r="B144" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
       <c r="C144" s="2">
         <v>17.298172454663</v>
       </c>
       <c r="D144" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E144" s="2">
         <v>1.2392279168255338</v>
       </c>
-      <c r="F144" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+      <c r="F144" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -3725,22 +3594,21 @@
         <v>144</v>
       </c>
       <c r="B145" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="C145" s="2">
         <v>19.842308203675763</v>
       </c>
       <c r="D145" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E145" s="2">
         <v>1.4314898399451481</v>
       </c>
-      <c r="F145" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+      <c r="F145" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -3748,22 +3616,21 @@
         <v>145</v>
       </c>
       <c r="B146" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="C146" s="2">
         <v>19.136557281307105</v>
       </c>
       <c r="D146" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E146" s="2">
         <v>1.0080012932498468</v>
       </c>
-      <c r="F146" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+      <c r="F146" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -3771,22 +3638,21 @@
         <v>146</v>
       </c>
       <c r="B147" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="C147" s="2">
         <v>16.136216738288162</v>
       </c>
       <c r="D147" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E147" s="2">
         <v>1.6800130850888813</v>
       </c>
-      <c r="F147" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+      <c r="F147" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -3794,22 +3660,21 @@
         <v>147</v>
       </c>
       <c r="B148" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
       </c>
       <c r="C148" s="2">
         <v>18.124749315382164</v>
       </c>
       <c r="D148" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E148" s="2">
         <v>1.5962484373311066</v>
       </c>
-      <c r="F148" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+      <c r="F148" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -3817,22 +3682,21 @@
         <v>148</v>
       </c>
       <c r="B149" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
       <c r="C149" s="2">
         <v>16.762783268183838</v>
       </c>
       <c r="D149" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E149" s="2">
         <v>1.555435396115562</v>
       </c>
-      <c r="F149" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+      <c r="F149" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -3840,22 +3704,21 @@
         <v>149</v>
       </c>
       <c r="B150" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
       <c r="C150" s="2">
         <v>18.433875811518284</v>
       </c>
       <c r="D150" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E150" s="2">
         <v>1.9212917817650954</v>
       </c>
-      <c r="F150" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+      <c r="F150" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -3863,22 +3726,21 @@
         <v>150</v>
       </c>
       <c r="B151" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
       <c r="C151" s="2">
         <v>16.177496881854921</v>
       </c>
       <c r="D151" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E151" s="2">
         <v>1.7136288072669639</v>
       </c>
-      <c r="F151" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+      <c r="F151" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -3886,22 +3748,21 @@
         <v>151</v>
       </c>
       <c r="B152" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
       <c r="C152" s="2">
         <v>19.65647309811833</v>
       </c>
       <c r="D152" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E152" s="2">
         <v>1.9058991558506881</v>
       </c>
-      <c r="F152" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+      <c r="F152" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -3909,22 +3770,21 @@
         <v>152</v>
       </c>
       <c r="B153" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="C153" s="2">
         <v>16.58662657415524</v>
       </c>
       <c r="D153" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E153" s="2">
         <v>1.0815936755500544</v>
       </c>
-      <c r="F153" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+      <c r="F153" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -3932,22 +3792,21 @@
         <v>153</v>
       </c>
       <c r="B154" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
       <c r="C154" s="2">
         <v>16.30400457388523</v>
       </c>
       <c r="D154" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E154" s="2">
         <v>1.4763710665741074</v>
       </c>
-      <c r="F154" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+      <c r="F154" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -3955,22 +3814,21 @@
         <v>154</v>
       </c>
       <c r="B155" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="C155" s="2">
         <v>18.002366987840436</v>
       </c>
       <c r="D155" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E155" s="2">
         <v>1.5599860036160096</v>
       </c>
-      <c r="F155" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+      <c r="F155" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -3978,22 +3836,21 @@
         <v>155</v>
       </c>
       <c r="B156" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
       <c r="C156" s="2">
         <v>17.032289452015046</v>
       </c>
       <c r="D156" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E156" s="2">
         <v>1.6037469105430744</v>
       </c>
-      <c r="F156" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+      <c r="F156" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -4001,22 +3858,21 @@
         <v>156</v>
       </c>
       <c r="B157" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
       <c r="C157" s="2">
         <v>17.633622543965455</v>
       </c>
       <c r="D157" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E157" s="2">
         <v>1.7513224248767734</v>
       </c>
-      <c r="F157" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+      <c r="F157" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -4024,22 +3880,21 @@
         <v>157</v>
       </c>
       <c r="B158" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
       <c r="C158" s="2">
         <v>18.220565223716509</v>
       </c>
       <c r="D158" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E158" s="2">
         <v>1.6224090791819319</v>
       </c>
-      <c r="F158" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+      <c r="F158" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -4047,22 +3902,21 @@
         <v>158</v>
       </c>
       <c r="B159" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="C159" s="2">
         <v>17.761107976349219</v>
       </c>
       <c r="D159" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E159" s="2">
         <v>1.2463213680184744</v>
       </c>
-      <c r="F159" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+      <c r="F159" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -4070,22 +3924,21 @@
         <v>159</v>
       </c>
       <c r="B160" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
       <c r="C160" s="2">
         <v>16.391333398028738</v>
       </c>
       <c r="D160" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E160" s="2">
         <v>1.6784705937060351</v>
       </c>
-      <c r="F160" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+      <c r="F160" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -4093,22 +3946,21 @@
         <v>160</v>
       </c>
       <c r="B161" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
       <c r="C161" s="2">
         <v>20.420870243246711</v>
       </c>
       <c r="D161" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E161" s="2">
         <v>1.4916386705206544</v>
       </c>
-      <c r="F161" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+      <c r="F161" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -4116,22 +3968,21 @@
         <v>161</v>
       </c>
       <c r="B162" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
       <c r="C162" s="2">
         <v>20.66934151790803</v>
       </c>
       <c r="D162" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E162" s="2">
         <v>1.8619610801595163</v>
       </c>
-      <c r="F162" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+      <c r="F162" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -4139,22 +3990,21 @@
         <v>162</v>
       </c>
       <c r="B163" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="C163" s="2">
         <v>20.889433390966762</v>
       </c>
       <c r="D163" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E163" s="2">
         <v>1.5700886929741102</v>
       </c>
-      <c r="F163" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+      <c r="F163" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -4162,22 +4012,21 @@
         <v>163</v>
       </c>
       <c r="B164" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="C164" s="2">
         <v>16.577873543857823</v>
       </c>
       <c r="D164" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E164" s="2">
         <v>1.2610777599594416</v>
       </c>
-      <c r="F164" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+      <c r="F164" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -4185,22 +4034,21 @@
         <v>164</v>
       </c>
       <c r="B165" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
       <c r="C165" s="2">
         <v>19.207385724120925</v>
       </c>
       <c r="D165" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E165" s="2">
         <v>1.1541211721110165</v>
       </c>
-      <c r="F165" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+      <c r="F165" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -4208,22 +4056,21 @@
         <v>165</v>
       </c>
       <c r="B166" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="C166" s="2">
         <v>17.342187326221367</v>
       </c>
       <c r="D166" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E166" s="2">
         <v>1.325130648877342</v>
       </c>
-      <c r="F166" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+      <c r="F166" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -4231,22 +4078,21 @@
         <v>166</v>
       </c>
       <c r="B167" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="C167" s="2">
         <v>20.310164843444802</v>
       </c>
       <c r="D167" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E167" s="2">
         <v>1.9357154881886089</v>
       </c>
-      <c r="F167" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+      <c r="F167" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -4254,22 +4100,21 @@
         <v>167</v>
       </c>
       <c r="B168" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="C168" s="2">
         <v>19.680965946380446</v>
       </c>
       <c r="D168" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E168" s="2">
         <v>1.457878825133881</v>
       </c>
-      <c r="F168" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+      <c r="F168" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -4277,22 +4122,21 @@
         <v>168</v>
       </c>
       <c r="B169" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="C169" s="2">
         <v>17.899590849547899</v>
       </c>
       <c r="D169" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E169" s="2">
         <v>1.0749493478393179</v>
       </c>
-      <c r="F169" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+      <c r="F169" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -4300,22 +4144,21 @@
         <v>169</v>
       </c>
       <c r="B170" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
       </c>
       <c r="C170" s="2">
         <v>17.605293249420654</v>
       </c>
       <c r="D170" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E170" s="2">
         <v>1.6901165455985896</v>
       </c>
-      <c r="F170" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+      <c r="F170" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
@@ -4323,22 +4166,21 @@
         <v>170</v>
       </c>
       <c r="B171" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="C171" s="2">
         <v>17.514652129135282</v>
       </c>
       <c r="D171" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E171" s="2">
         <v>1.3220876500208121</v>
       </c>
-      <c r="F171" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+      <c r="F171" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
@@ -4346,22 +4188,21 @@
         <v>171</v>
       </c>
       <c r="B172" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
       <c r="C172" s="2">
         <v>19.447476380244893</v>
       </c>
       <c r="D172" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E172" s="2">
         <v>1.279891409249561</v>
       </c>
-      <c r="F172" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+      <c r="F172" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -4369,22 +4210,21 @@
         <v>172</v>
       </c>
       <c r="B173" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
       <c r="C173" s="2">
         <v>16.445857520491352</v>
       </c>
       <c r="D173" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E173" s="2">
         <v>1.7792932172734064</v>
       </c>
-      <c r="F173" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+      <c r="F173" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -4392,22 +4232,21 @@
         <v>173</v>
       </c>
       <c r="B174" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
       </c>
       <c r="C174" s="2">
         <v>17.760064214799009</v>
       </c>
       <c r="D174" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E174" s="2">
         <v>1.1280213791255256</v>
       </c>
-      <c r="F174" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+      <c r="F174" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
@@ -4415,22 +4254,21 @@
         <v>174</v>
       </c>
       <c r="B175" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="C175" s="2">
         <v>19.329092537133967</v>
       </c>
       <c r="D175" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E175" s="2">
         <v>1.9034899412397164</v>
       </c>
-      <c r="F175" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+      <c r="F175" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
@@ -4438,22 +4276,21 @@
         <v>175</v>
       </c>
       <c r="B176" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
       <c r="C176" s="2">
         <v>18.356991545170317</v>
       </c>
       <c r="D176" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E176" s="2">
         <v>1.2531482145837596</v>
       </c>
-      <c r="F176" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+      <c r="F176" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
@@ -4461,22 +4298,21 @@
         <v>176</v>
       </c>
       <c r="B177" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
       </c>
       <c r="C177" s="2">
         <v>17.312985641527156</v>
       </c>
       <c r="D177" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E177" s="2">
         <v>1.8199753210011944</v>
       </c>
-      <c r="F177" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+      <c r="F177" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -4484,22 +4320,21 @@
         <v>177</v>
       </c>
       <c r="B178" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="C178" s="2">
         <v>17.411078520042444</v>
       </c>
       <c r="D178" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E178" s="2">
         <v>1.7232672809795222</v>
       </c>
-      <c r="F178" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+      <c r="F178" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -4507,22 +4342,21 @@
         <v>178</v>
       </c>
       <c r="B179" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="C179" s="2">
         <v>20.142032285816342</v>
       </c>
       <c r="D179" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E179" s="2">
         <v>1.9685400118401466</v>
       </c>
-      <c r="F179" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+      <c r="F179" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -4530,22 +4364,21 @@
         <v>179</v>
       </c>
       <c r="B180" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="C180" s="2">
         <v>16.160948534283342</v>
       </c>
       <c r="D180" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E180" s="2">
         <v>1.7380159534819755</v>
       </c>
-      <c r="F180" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+      <c r="F180" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -4553,22 +4386,21 @@
         <v>180</v>
       </c>
       <c r="B181" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
       <c r="C181" s="2">
         <v>18.049287599891876</v>
       </c>
       <c r="D181" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E181" s="2">
         <v>1.101154640590019</v>
       </c>
-      <c r="F181" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+      <c r="F181" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -4576,22 +4408,21 @@
         <v>181</v>
       </c>
       <c r="B182" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="C182" s="2">
         <v>16.261039443480996</v>
       </c>
       <c r="D182" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E182" s="2">
         <v>1.1330695699217177</v>
       </c>
-      <c r="F182" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+      <c r="F182" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
@@ -4599,22 +4430,21 @@
         <v>182</v>
       </c>
       <c r="B183" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
       </c>
       <c r="C183" s="2">
         <v>16.09848381925579</v>
       </c>
       <c r="D183" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E183" s="2">
         <v>1.7838913303876685</v>
       </c>
-      <c r="F183" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+      <c r="F183" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
@@ -4622,22 +4452,21 @@
         <v>183</v>
       </c>
       <c r="B184" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
       </c>
       <c r="C184" s="2">
         <v>17.727647031919567</v>
       </c>
       <c r="D184" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E184" s="2">
         <v>1.1809949045552131</v>
       </c>
-      <c r="F184" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+      <c r="F184" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
@@ -4645,22 +4474,21 @@
         <v>184</v>
       </c>
       <c r="B185" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
       <c r="C185" s="2">
         <v>19.009731238183644</v>
       </c>
       <c r="D185" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E185" s="2">
         <v>1.1533883913042775</v>
       </c>
-      <c r="F185" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+      <c r="F185" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
@@ -4668,22 +4496,21 @@
         <v>185</v>
       </c>
       <c r="B186" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
       <c r="C186" s="2">
         <v>16.853039686328909</v>
       </c>
       <c r="D186" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E186" s="2">
         <v>1.9214081630191826</v>
       </c>
-      <c r="F186" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+      <c r="F186" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
@@ -4691,22 +4518,21 @@
         <v>186</v>
       </c>
       <c r="B187" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
       <c r="C187" s="2">
         <v>19.099856744197396</v>
       </c>
       <c r="D187" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E187" s="2">
         <v>1.176920464158582</v>
       </c>
-      <c r="F187" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+      <c r="F187" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
@@ -4714,22 +4540,21 @@
         <v>187</v>
       </c>
       <c r="B188" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
       </c>
       <c r="C188" s="2">
         <v>16.038687256994617</v>
       </c>
       <c r="D188" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E188" s="2">
         <v>1.3680929729593012</v>
       </c>
-      <c r="F188" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+      <c r="F188" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
@@ -4737,22 +4562,21 @@
         <v>188</v>
       </c>
       <c r="B189" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
       </c>
       <c r="C189" s="2">
         <v>17.511366418875731</v>
       </c>
       <c r="D189" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E189" s="2">
         <v>1.5429611251794118</v>
       </c>
-      <c r="F189" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+      <c r="F189" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
@@ -4760,22 +4584,21 @@
         <v>189</v>
       </c>
       <c r="B190" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
       <c r="C190" s="2">
         <v>16.411440155089632</v>
       </c>
       <c r="D190" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E190" s="2">
         <v>1.2052439999824884</v>
       </c>
-      <c r="F190" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+      <c r="F190" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
@@ -4783,22 +4606,21 @@
         <v>190</v>
       </c>
       <c r="B191" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
       </c>
       <c r="C191" s="2">
         <v>16.423808178043895</v>
       </c>
       <c r="D191" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E191" s="2">
         <v>1.9183479652609923</v>
       </c>
-      <c r="F191" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+      <c r="F191" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
@@ -4806,22 +4628,21 @@
         <v>191</v>
       </c>
       <c r="B192" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
       <c r="C192" s="2">
         <v>19.305674912429019</v>
       </c>
       <c r="D192" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E192" s="2">
         <v>1.2627811190324336</v>
       </c>
-      <c r="F192" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+      <c r="F192" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
@@ -4829,22 +4650,21 @@
         <v>192</v>
       </c>
       <c r="B193" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="C193" s="2">
         <v>18.35753175964151</v>
       </c>
       <c r="D193" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E193" s="2">
         <v>1.0539584311480716</v>
       </c>
-      <c r="F193" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+      <c r="F193" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
@@ -4852,22 +4672,21 @@
         <v>193</v>
       </c>
       <c r="B194" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="C194" s="2">
         <v>17.35232311341759</v>
       </c>
       <c r="D194" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E194" s="2">
         <v>1.3785613699509653</v>
       </c>
-      <c r="F194" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+      <c r="F194" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
@@ -4875,22 +4694,21 @@
         <v>194</v>
       </c>
       <c r="B195" s="3">
-        <f t="shared" ref="B195:B258" ca="1" si="9">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <f t="shared" ref="B195:B258" ca="1" si="6">RANDBETWEEN(1,5)</f>
+        <v>2</v>
       </c>
       <c r="C195" s="2">
         <v>19.150319908140208</v>
       </c>
       <c r="D195" s="2">
-        <f t="shared" ref="D195:D258" si="10">IF(C195&lt;15,1,IF(AND(C195&gt;15,C195&lt;21),2,IF(AND(C195&gt;20,C195&lt;31),3,4)))</f>
+        <f t="shared" ref="D195:D258" si="7">IF(C195&lt;15,1,IF(AND(C195&gt;15,C195&lt;21),2,IF(AND(C195&gt;20,C195&lt;31),3,4)))</f>
         <v>2</v>
       </c>
       <c r="E195" s="2">
         <v>1.6501440299093351</v>
       </c>
-      <c r="F195" s="3">
-        <f t="shared" ref="F195:F258" ca="1" si="11">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+      <c r="F195" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
@@ -4898,22 +4716,21 @@
         <v>195</v>
       </c>
       <c r="B196" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="C196" s="2">
         <v>20.137916086499381</v>
       </c>
       <c r="D196" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E196" s="2">
         <v>1.3463476822998848</v>
       </c>
-      <c r="F196" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+      <c r="F196" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
@@ -4921,22 +4738,21 @@
         <v>196</v>
       </c>
       <c r="B197" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="C197" s="2">
         <v>18.893898935943646</v>
       </c>
       <c r="D197" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E197" s="2">
         <v>1.257365456883407</v>
       </c>
-      <c r="F197" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+      <c r="F197" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
@@ -4944,22 +4760,21 @@
         <v>197</v>
       </c>
       <c r="B198" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
       </c>
       <c r="C198" s="2">
         <v>19.589410773755159</v>
       </c>
       <c r="D198" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E198" s="2">
         <v>1.6794613503032119</v>
       </c>
-      <c r="F198" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+      <c r="F198" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
@@ -4967,22 +4782,21 @@
         <v>198</v>
       </c>
       <c r="B199" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="C199" s="2">
         <v>16.96808388462247</v>
       </c>
       <c r="D199" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E199" s="2">
         <v>1.4183587625400773</v>
       </c>
-      <c r="F199" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+      <c r="F199" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
@@ -4990,22 +4804,21 @@
         <v>199</v>
       </c>
       <c r="B200" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="C200" s="2">
         <v>21.878895562492303</v>
       </c>
       <c r="D200" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="E200" s="2">
         <v>1.1648790890188296</v>
       </c>
-      <c r="F200" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+      <c r="F200" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
@@ -5013,22 +4826,21 @@
         <v>200</v>
       </c>
       <c r="B201" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
       </c>
       <c r="C201" s="2">
         <v>21.710016220903459</v>
       </c>
       <c r="D201" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="E201" s="2">
         <v>1.8159519044673935</v>
       </c>
-      <c r="F201" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+      <c r="F201" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
@@ -5036,22 +4848,21 @@
         <v>201</v>
       </c>
       <c r="B202" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="C202" s="2">
         <v>21.694464984922487</v>
       </c>
       <c r="D202" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="E202" s="2">
         <v>1.7387585223783077</v>
       </c>
-      <c r="F202" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+      <c r="F202" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
@@ -5059,22 +4870,21 @@
         <v>202</v>
       </c>
       <c r="B203" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
       </c>
       <c r="C203" s="2">
         <v>18.825893365496494</v>
       </c>
       <c r="D203" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E203" s="2">
         <v>1.3584577481089781</v>
       </c>
-      <c r="F203" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+      <c r="F203" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
@@ -5082,22 +4892,21 @@
         <v>203</v>
       </c>
       <c r="B204" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
       </c>
       <c r="C204" s="2">
         <v>19.034923250082521</v>
       </c>
       <c r="D204" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E204" s="2">
         <v>1.7010471249084911</v>
       </c>
-      <c r="F204" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+      <c r="F204" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
@@ -5105,22 +4914,21 @@
         <v>204</v>
       </c>
       <c r="B205" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="C205" s="2">
         <v>17.084674559644533</v>
       </c>
       <c r="D205" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E205" s="2">
         <v>1.0564861733178059</v>
       </c>
-      <c r="F205" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+      <c r="F205" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
@@ -5128,22 +4936,21 @@
         <v>205</v>
       </c>
       <c r="B206" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C206" s="2">
         <v>17.903313715728498</v>
       </c>
       <c r="D206" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E206" s="2">
         <v>1.2780119763956217</v>
       </c>
-      <c r="F206" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+      <c r="F206" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
@@ -5151,22 +4958,21 @@
         <v>206</v>
       </c>
       <c r="B207" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="C207" s="2">
         <v>19.301916094805833</v>
       </c>
       <c r="D207" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E207" s="2">
         <v>1.3128238851242746</v>
       </c>
-      <c r="F207" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+      <c r="F207" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
@@ -5174,22 +4980,21 @@
         <v>207</v>
       </c>
       <c r="B208" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="C208" s="2">
         <v>19.784995175997285</v>
       </c>
       <c r="D208" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E208" s="2">
         <v>1.5082128974161217</v>
       </c>
-      <c r="F208" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+      <c r="F208" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
@@ -5197,22 +5002,21 @@
         <v>208</v>
       </c>
       <c r="B209" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
       </c>
       <c r="C209" s="2">
         <v>20.963984363500849</v>
       </c>
       <c r="D209" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E209" s="2">
         <v>1.5601735421304859</v>
       </c>
-      <c r="F209" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+      <c r="F209" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
@@ -5220,22 +5024,21 @@
         <v>209</v>
       </c>
       <c r="B210" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="C210" s="2">
         <v>21.822779698188441</v>
       </c>
       <c r="D210" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="E210" s="2">
         <v>1.2360796240091818</v>
       </c>
-      <c r="F210" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+      <c r="F210" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
@@ -5243,22 +5046,21 @@
         <v>210</v>
       </c>
       <c r="B211" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="C211" s="2">
         <v>20.475724494850112</v>
       </c>
       <c r="D211" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E211" s="2">
         <v>1.5541055261185404</v>
       </c>
-      <c r="F211" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+      <c r="F211" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -5266,22 +5068,21 @@
         <v>211</v>
       </c>
       <c r="B212" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="C212" s="2">
         <v>18.156101383998219</v>
       </c>
       <c r="D212" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E212" s="2">
         <v>1.8737941585932694</v>
       </c>
-      <c r="F212" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+      <c r="F212" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
@@ -5289,22 +5090,21 @@
         <v>212</v>
       </c>
       <c r="B213" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="C213" s="2">
         <v>21.16961047767067</v>
       </c>
       <c r="D213" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="E213" s="2">
         <v>1.6367188227186769</v>
       </c>
-      <c r="F213" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+      <c r="F213" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
@@ -5312,22 +5112,21 @@
         <v>213</v>
       </c>
       <c r="B214" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="C214" s="2">
         <v>20.505544101820359</v>
       </c>
       <c r="D214" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E214" s="2">
         <v>1.5966007923116328</v>
       </c>
-      <c r="F214" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+      <c r="F214" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
@@ -5335,22 +5134,21 @@
         <v>214</v>
       </c>
       <c r="B215" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="C215" s="2">
         <v>19.473441694925924</v>
       </c>
       <c r="D215" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E215" s="2">
         <v>1.1489387924530188</v>
       </c>
-      <c r="F215" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+      <c r="F215" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
@@ -5358,22 +5156,21 @@
         <v>215</v>
       </c>
       <c r="B216" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="C216" s="2">
         <v>17.452523604715548</v>
       </c>
       <c r="D216" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E216" s="2">
         <v>1.6262346908454626</v>
       </c>
-      <c r="F216" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+      <c r="F216" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
@@ -5381,22 +5178,21 @@
         <v>216</v>
       </c>
       <c r="B217" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C217" s="2">
         <v>17.198404795267894</v>
       </c>
       <c r="D217" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E217" s="2">
         <v>1.5178584001981799</v>
       </c>
-      <c r="F217" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+      <c r="F217" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
@@ -5404,22 +5200,21 @@
         <v>217</v>
       </c>
       <c r="B218" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="C218" s="2">
         <v>19.983249092138479</v>
       </c>
       <c r="D218" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E218" s="2">
         <v>1.1150479782316793</v>
       </c>
-      <c r="F218" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+      <c r="F218" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
@@ -5427,22 +5222,21 @@
         <v>218</v>
       </c>
       <c r="B219" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="C219" s="2">
         <v>17.443100543803457</v>
       </c>
       <c r="D219" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E219" s="2">
         <v>1.8188955972208483</v>
       </c>
-      <c r="F219" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+      <c r="F219" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
@@ -5450,22 +5244,21 @@
         <v>219</v>
       </c>
       <c r="B220" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="C220" s="2">
         <v>17.305070908581069</v>
       </c>
       <c r="D220" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E220" s="2">
         <v>1.507534332995941</v>
       </c>
-      <c r="F220" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+      <c r="F220" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -5473,22 +5266,21 @@
         <v>220</v>
       </c>
       <c r="B221" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C221" s="2">
         <v>21.011500537363261</v>
       </c>
       <c r="D221" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="E221" s="2">
         <v>1.7425781204054587</v>
       </c>
-      <c r="F221" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+      <c r="F221" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -5496,22 +5288,21 @@
         <v>221</v>
       </c>
       <c r="B222" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="C222" s="2">
         <v>21.415008469896815</v>
       </c>
       <c r="D222" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="E222" s="2">
         <v>1.1584878230453808</v>
       </c>
-      <c r="F222" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+      <c r="F222" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
@@ -5519,22 +5310,21 @@
         <v>222</v>
       </c>
       <c r="B223" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="C223" s="2">
         <v>17.60025922421875</v>
       </c>
       <c r="D223" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E223" s="2">
         <v>1.8227258670829452</v>
       </c>
-      <c r="F223" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+      <c r="F223" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
@@ -5542,22 +5332,21 @@
         <v>223</v>
       </c>
       <c r="B224" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
       </c>
       <c r="C224" s="2">
         <v>19.856620509639683</v>
       </c>
       <c r="D224" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E224" s="2">
         <v>1.7185378768242487</v>
       </c>
-      <c r="F224" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+      <c r="F224" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
@@ -5565,22 +5354,21 @@
         <v>224</v>
       </c>
       <c r="B225" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="C225" s="2">
         <v>21.084620344906554</v>
       </c>
       <c r="D225" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="E225" s="2">
         <v>1.6246663387982432</v>
       </c>
-      <c r="F225" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+      <c r="F225" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
@@ -5588,22 +5376,21 @@
         <v>225</v>
       </c>
       <c r="B226" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="C226" s="2">
         <v>18.771708226373129</v>
       </c>
       <c r="D226" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E226" s="2">
         <v>1.1093421221883579</v>
       </c>
-      <c r="F226" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+      <c r="F226" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
@@ -5611,22 +5398,21 @@
         <v>226</v>
       </c>
       <c r="B227" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="C227" s="2">
         <v>20.568890014011455</v>
       </c>
       <c r="D227" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E227" s="2">
         <v>1.010288535444448</v>
       </c>
-      <c r="F227" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+      <c r="F227" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
@@ -5634,22 +5420,21 @@
         <v>227</v>
       </c>
       <c r="B228" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="C228" s="2">
         <v>18.054844894827589</v>
       </c>
       <c r="D228" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E228" s="2">
         <v>1.2355163780094238</v>
       </c>
-      <c r="F228" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+      <c r="F228" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
@@ -5657,22 +5442,21 @@
         <v>228</v>
       </c>
       <c r="B229" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="C229" s="2">
         <v>17.380718335936209</v>
       </c>
       <c r="D229" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E229" s="2">
         <v>1.2088843946612489</v>
       </c>
-      <c r="F229" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+      <c r="F229" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
@@ -5680,22 +5464,21 @@
         <v>229</v>
       </c>
       <c r="B230" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="C230" s="2">
         <v>21.053128640754338</v>
       </c>
       <c r="D230" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="E230" s="2">
         <v>1.6868544558987741</v>
       </c>
-      <c r="F230" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+      <c r="F230" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
@@ -5703,22 +5486,21 @@
         <v>230</v>
       </c>
       <c r="B231" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="C231" s="2">
         <v>20.922372189127692</v>
       </c>
       <c r="D231" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E231" s="2">
         <v>1.0355772417951257</v>
       </c>
-      <c r="F231" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+      <c r="F231" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
@@ -5726,22 +5508,21 @@
         <v>231</v>
       </c>
       <c r="B232" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="C232" s="2">
         <v>18.30129422564449</v>
       </c>
       <c r="D232" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E232" s="2">
         <v>1.6417778944592247</v>
       </c>
-      <c r="F232" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+      <c r="F232" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
@@ -5749,22 +5530,21 @@
         <v>232</v>
       </c>
       <c r="B233" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="C233" s="2">
         <v>20.385954068286921</v>
       </c>
       <c r="D233" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E233" s="2">
         <v>1.6836632396080353</v>
       </c>
-      <c r="F233" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+      <c r="F233" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
@@ -5772,22 +5552,21 @@
         <v>233</v>
       </c>
       <c r="B234" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="C234" s="2">
         <v>18.515200068399871</v>
       </c>
       <c r="D234" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E234" s="2">
         <v>1.4896654007304777</v>
       </c>
-      <c r="F234" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+      <c r="F234" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
@@ -5795,22 +5574,21 @@
         <v>234</v>
       </c>
       <c r="B235" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="C235" s="2">
         <v>20.577814193209704</v>
       </c>
       <c r="D235" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E235" s="2">
         <v>1.0897734397583707</v>
       </c>
-      <c r="F235" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+      <c r="F235" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
@@ -5818,22 +5596,21 @@
         <v>235</v>
       </c>
       <c r="B236" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="C236" s="2">
         <v>20.338880661392118</v>
       </c>
       <c r="D236" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E236" s="2">
         <v>1.8010418197331632</v>
       </c>
-      <c r="F236" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+      <c r="F236" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
@@ -5841,22 +5618,21 @@
         <v>236</v>
       </c>
       <c r="B237" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="C237" s="2">
         <v>17.169521101039045</v>
       </c>
       <c r="D237" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E237" s="2">
         <v>1.0870347113838359</v>
       </c>
-      <c r="F237" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+      <c r="F237" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
@@ -5864,22 +5640,21 @@
         <v>237</v>
       </c>
       <c r="B238" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="C238" s="2">
         <v>20.96418756199801</v>
       </c>
       <c r="D238" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E238" s="2">
         <v>1.2710242143757258</v>
       </c>
-      <c r="F238" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+      <c r="F238" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
@@ -5887,22 +5662,21 @@
         <v>238</v>
       </c>
       <c r="B239" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="C239" s="2">
         <v>18.651365926302809</v>
       </c>
       <c r="D239" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E239" s="2">
         <v>1.6242261835804228</v>
       </c>
-      <c r="F239" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+      <c r="F239" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
@@ -5910,22 +5684,21 @@
         <v>239</v>
       </c>
       <c r="B240" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="C240" s="2">
         <v>19.226893289215212</v>
       </c>
       <c r="D240" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E240" s="2">
         <v>1.0800711481196701</v>
       </c>
-      <c r="F240" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+      <c r="F240" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
@@ -5933,22 +5706,21 @@
         <v>240</v>
       </c>
       <c r="B241" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="C241" s="2">
         <v>18.926354573424533</v>
       </c>
       <c r="D241" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E241" s="2">
         <v>1.634915850981747</v>
       </c>
-      <c r="F241" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+      <c r="F241" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
@@ -5956,22 +5728,21 @@
         <v>241</v>
       </c>
       <c r="B242" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="C242" s="2">
         <v>17.791881896897959</v>
       </c>
       <c r="D242" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E242" s="2">
         <v>1.8245995705138423</v>
       </c>
-      <c r="F242" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+      <c r="F242" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
@@ -5979,22 +5750,21 @@
         <v>242</v>
       </c>
       <c r="B243" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="C243" s="2">
         <v>19.733194931552653</v>
       </c>
       <c r="D243" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E243" s="2">
         <v>1.5048815797228556</v>
       </c>
-      <c r="F243" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+      <c r="F243" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
@@ -6002,22 +5772,21 @@
         <v>243</v>
       </c>
       <c r="B244" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="C244" s="2">
         <v>17.565987714868076</v>
       </c>
       <c r="D244" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E244" s="2">
         <v>1.6865349016847717</v>
       </c>
-      <c r="F244" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+      <c r="F244" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
@@ -6025,22 +5794,21 @@
         <v>244</v>
       </c>
       <c r="B245" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C245" s="2">
         <v>18.750548379503631</v>
       </c>
       <c r="D245" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E245" s="2">
         <v>1.325297979291727</v>
       </c>
-      <c r="F245" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+      <c r="F245" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
@@ -6048,22 +5816,21 @@
         <v>245</v>
       </c>
       <c r="B246" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="6"/>
         <v>5</v>
       </c>
       <c r="C246" s="2">
         <v>18.749668164178125</v>
       </c>
       <c r="D246" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E246" s="2">
         <v>1.259660591807175</v>
       </c>
-      <c r="F246" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+      <c r="F246" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
@@ -6071,22 +5838,21 @@
         <v>246</v>
       </c>
       <c r="B247" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="C247" s="2">
         <v>20.334448270817113</v>
       </c>
       <c r="D247" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E247" s="2">
         <v>1.9185658049492269</v>
       </c>
-      <c r="F247" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+      <c r="F247" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
@@ -6094,22 +5860,21 @@
         <v>247</v>
       </c>
       <c r="B248" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
       <c r="C248" s="2">
         <v>21.964096589269904</v>
       </c>
       <c r="D248" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="E248" s="2">
         <v>1.1046389816668611</v>
       </c>
-      <c r="F248" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+      <c r="F248" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
@@ -6117,22 +5882,21 @@
         <v>248</v>
       </c>
       <c r="B249" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="C249" s="2">
         <v>18.704102788929131</v>
       </c>
       <c r="D249" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E249" s="2">
         <v>1.0788148679905241</v>
       </c>
-      <c r="F249" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+      <c r="F249" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
@@ -6140,22 +5904,21 @@
         <v>249</v>
       </c>
       <c r="B250" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="C250" s="2">
         <v>18.185477015970505</v>
       </c>
       <c r="D250" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E250" s="2">
         <v>1.935351559323693</v>
       </c>
-      <c r="F250" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+      <c r="F250" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
@@ -6163,22 +5926,21 @@
         <v>250</v>
       </c>
       <c r="B251" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="C251" s="2">
         <v>17.847740193443698</v>
       </c>
       <c r="D251" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E251" s="2">
         <v>1.0748597658216057</v>
       </c>
-      <c r="F251" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+      <c r="F251" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
@@ -6186,22 +5948,21 @@
         <v>251</v>
       </c>
       <c r="B252" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C252" s="2">
         <v>19.166386360004108</v>
       </c>
       <c r="D252" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E252" s="2">
         <v>1.2420267522909427</v>
       </c>
-      <c r="F252" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+      <c r="F252" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
@@ -6209,22 +5970,21 @@
         <v>252</v>
       </c>
       <c r="B253" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="C253" s="2">
         <v>19.95333249021882</v>
       </c>
       <c r="D253" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E253" s="2">
         <v>1.6502620188496699</v>
       </c>
-      <c r="F253" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+      <c r="F253" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
@@ -6232,22 +5992,21 @@
         <v>253</v>
       </c>
       <c r="B254" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="C254" s="2">
         <v>20.845111484986148</v>
       </c>
       <c r="D254" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E254" s="2">
         <v>1.9099851112327471</v>
       </c>
-      <c r="F254" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+      <c r="F254" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
@@ -6255,22 +6014,21 @@
         <v>254</v>
       </c>
       <c r="B255" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="C255" s="2">
         <v>17.436840526161866</v>
       </c>
       <c r="D255" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E255" s="2">
         <v>1.5883142262439509</v>
       </c>
-      <c r="F255" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+      <c r="F255" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
@@ -6278,22 +6036,21 @@
         <v>255</v>
       </c>
       <c r="B256" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="C256" s="2">
         <v>19.124076225124199</v>
       </c>
       <c r="D256" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E256" s="2">
         <v>1.8234303394854505</v>
       </c>
-      <c r="F256" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+      <c r="F256" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
@@ -6301,22 +6058,21 @@
         <v>256</v>
       </c>
       <c r="B257" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="C257" s="2">
         <v>21.672986001703961</v>
       </c>
       <c r="D257" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="E257" s="2">
         <v>1.6637885475239114</v>
       </c>
-      <c r="F257" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+      <c r="F257" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
@@ -6324,22 +6080,21 @@
         <v>257</v>
       </c>
       <c r="B258" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="C258" s="2">
         <v>21.508298308141317</v>
       </c>
       <c r="D258" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="E258" s="2">
         <v>1.7203254189413668</v>
       </c>
-      <c r="F258" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+      <c r="F258" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
@@ -6347,22 +6102,21 @@
         <v>258</v>
       </c>
       <c r="B259" s="3">
-        <f t="shared" ref="B259:B300" ca="1" si="12">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <f t="shared" ref="B259:B300" ca="1" si="8">RANDBETWEEN(1,5)</f>
+        <v>1</v>
       </c>
       <c r="C259" s="2">
         <v>21.044554847401528</v>
       </c>
       <c r="D259" s="2">
-        <f t="shared" ref="D259:D300" si="13">IF(C259&lt;15,1,IF(AND(C259&gt;15,C259&lt;21),2,IF(AND(C259&gt;20,C259&lt;31),3,4)))</f>
+        <f t="shared" ref="D259:D300" si="9">IF(C259&lt;15,1,IF(AND(C259&gt;15,C259&lt;21),2,IF(AND(C259&gt;20,C259&lt;31),3,4)))</f>
         <v>3</v>
       </c>
       <c r="E259" s="2">
         <v>1.9047722384574906</v>
       </c>
-      <c r="F259" s="3">
-        <f t="shared" ref="F259:F300" ca="1" si="14">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+      <c r="F259" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
@@ -6370,22 +6124,21 @@
         <v>259</v>
       </c>
       <c r="B260" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
       </c>
       <c r="C260" s="2">
         <v>18.636284453478446</v>
       </c>
       <c r="D260" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="E260" s="2">
         <v>1.845495988684132</v>
       </c>
-      <c r="F260" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+      <c r="F260" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
@@ -6393,22 +6146,21 @@
         <v>260</v>
       </c>
       <c r="B261" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
       </c>
       <c r="C261" s="2">
         <v>35.732107129571069</v>
       </c>
       <c r="D261" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E261" s="2">
         <v>1.7405778850493629</v>
       </c>
-      <c r="F261" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+      <c r="F261" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
@@ -6416,22 +6168,21 @@
         <v>261</v>
       </c>
       <c r="B262" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
       </c>
       <c r="C262" s="2">
         <v>38.750859246687604</v>
       </c>
       <c r="D262" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E262" s="2">
         <v>1.9395264467414752</v>
       </c>
-      <c r="F262" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+      <c r="F262" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
@@ -6439,22 +6190,21 @@
         <v>262</v>
       </c>
       <c r="B263" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
       </c>
       <c r="C263" s="2">
         <v>51.679510897886601</v>
       </c>
       <c r="D263" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E263" s="2">
         <v>1.8983425841665693</v>
       </c>
-      <c r="F263" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+      <c r="F263" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
@@ -6462,22 +6212,21 @@
         <v>263</v>
       </c>
       <c r="B264" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="C264" s="2">
         <v>50.040801367200714</v>
       </c>
       <c r="D264" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E264" s="2">
         <v>1.9207803725601318</v>
       </c>
-      <c r="F264" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+      <c r="F264" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
@@ -6485,22 +6234,21 @@
         <v>264</v>
       </c>
       <c r="B265" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
       </c>
       <c r="C265" s="2">
         <v>60.31935285399657</v>
       </c>
       <c r="D265" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E265" s="2">
         <v>1.7182248383444629</v>
       </c>
-      <c r="F265" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+      <c r="F265" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
@@ -6508,22 +6256,21 @@
         <v>265</v>
       </c>
       <c r="B266" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="C266" s="2">
         <v>38.733815328244027</v>
       </c>
       <c r="D266" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E266" s="2">
         <v>1.4663579108508145</v>
       </c>
-      <c r="F266" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+      <c r="F266" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
@@ -6531,22 +6278,21 @@
         <v>266</v>
       </c>
       <c r="B267" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
       </c>
       <c r="C267" s="2">
         <v>38.407348651221362</v>
       </c>
       <c r="D267" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E267" s="2">
         <v>1.4023658997549551</v>
       </c>
-      <c r="F267" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+      <c r="F267" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
@@ -6554,22 +6300,21 @@
         <v>267</v>
       </c>
       <c r="B268" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
       </c>
       <c r="C268" s="2">
         <v>48.753170498884586</v>
       </c>
       <c r="D268" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E268" s="2">
         <v>1.9838582817691115</v>
       </c>
-      <c r="F268" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+      <c r="F268" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
@@ -6577,22 +6322,21 @@
         <v>268</v>
       </c>
       <c r="B269" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
       </c>
       <c r="C269" s="2">
         <v>44.255771071445608</v>
       </c>
       <c r="D269" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E269" s="2">
         <v>1.603597567048503</v>
       </c>
-      <c r="F269" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+      <c r="F269" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
@@ -6600,22 +6344,21 @@
         <v>269</v>
       </c>
       <c r="B270" s="3">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
       <c r="C270" s="2">
         <v>33.217587598060398</v>
       </c>
       <c r="D270" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E270" s="2">
         <v>1.4244464722811867</v>
       </c>
-      <c r="F270" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+      <c r="F270" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
@@ -6623,22 +6366,21 @@
         <v>270</v>
       </c>
       <c r="B271" s="3">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v>5</v>
       </c>
       <c r="C271" s="2">
         <v>37.502384338807374</v>
       </c>
       <c r="D271" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E271" s="2">
         <v>1.1035239313381111</v>
       </c>
-      <c r="F271" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+      <c r="F271" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
@@ -6646,22 +6388,21 @@
         <v>271</v>
       </c>
       <c r="B272" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
       </c>
       <c r="C272" s="2">
         <v>60.303858607808358</v>
       </c>
       <c r="D272" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E272" s="2">
         <v>1.3184729352199698</v>
       </c>
-      <c r="F272" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+      <c r="F272" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
@@ -6669,22 +6410,21 @@
         <v>272</v>
       </c>
       <c r="B273" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
       </c>
       <c r="C273" s="2">
         <v>37.452580242434436</v>
       </c>
       <c r="D273" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E273" s="2">
         <v>1.3126296215548932</v>
       </c>
-      <c r="F273" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+      <c r="F273" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
@@ -6692,22 +6432,21 @@
         <v>273</v>
       </c>
       <c r="B274" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
       </c>
       <c r="C274" s="2">
         <v>45.834428706731956</v>
       </c>
       <c r="D274" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E274" s="2">
         <v>1.7317397788717925</v>
       </c>
-      <c r="F274" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+      <c r="F274" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
@@ -6715,22 +6454,21 @@
         <v>274</v>
       </c>
       <c r="B275" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
       </c>
       <c r="C275" s="2">
         <v>33.876771921621383</v>
       </c>
       <c r="D275" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E275" s="2">
         <v>1.8896445199095351</v>
       </c>
-      <c r="F275" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+      <c r="F275" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
@@ -6738,22 +6476,21 @@
         <v>275</v>
       </c>
       <c r="B276" s="3">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
       <c r="C276" s="2">
         <v>47.904140397785469</v>
       </c>
       <c r="D276" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E276" s="2">
         <v>1.5430335569500389</v>
       </c>
-      <c r="F276" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+      <c r="F276" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
@@ -6761,22 +6498,21 @@
         <v>276</v>
       </c>
       <c r="B277" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="C277" s="2">
         <v>33.405243365592796</v>
       </c>
       <c r="D277" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E277" s="2">
         <v>1.5456425175502941</v>
       </c>
-      <c r="F277" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+      <c r="F277" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
@@ -6784,22 +6520,21 @@
         <v>277</v>
       </c>
       <c r="B278" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
       </c>
       <c r="C278" s="2">
         <v>45.720954274882999</v>
       </c>
       <c r="D278" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E278" s="2">
         <v>1.0664652426603307</v>
       </c>
-      <c r="F278" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+      <c r="F278" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
@@ -6807,22 +6542,21 @@
         <v>278</v>
       </c>
       <c r="B279" s="3">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
       <c r="C279" s="2">
         <v>43.657584661772042</v>
       </c>
       <c r="D279" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E279" s="2">
         <v>1.2110552529388408</v>
       </c>
-      <c r="F279" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+      <c r="F279" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
@@ -6830,22 +6564,21 @@
         <v>279</v>
       </c>
       <c r="B280" s="3">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
       <c r="C280" s="2">
         <v>31.143166843339436</v>
       </c>
       <c r="D280" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E280" s="2">
         <v>1.1753759517467179</v>
       </c>
-      <c r="F280" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+      <c r="F280" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
@@ -6853,22 +6586,21 @@
         <v>280</v>
       </c>
       <c r="B281" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
       </c>
       <c r="C281" s="2">
         <v>59.933156510658634</v>
       </c>
       <c r="D281" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E281" s="2">
         <v>1.6149412006593022</v>
       </c>
-      <c r="F281" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+      <c r="F281" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
@@ -6876,22 +6608,21 @@
         <v>281</v>
       </c>
       <c r="B282" s="3">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v>4</v>
       </c>
       <c r="C282" s="2">
         <v>48.014070089335817</v>
       </c>
       <c r="D282" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E282" s="2">
         <v>1.5491969339089733</v>
       </c>
-      <c r="F282" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+      <c r="F282" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
@@ -6899,22 +6630,21 @@
         <v>282</v>
       </c>
       <c r="B283" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
       </c>
       <c r="C283" s="2">
         <v>61.387859625119127</v>
       </c>
       <c r="D283" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E283" s="2">
         <v>1.1090959500449398</v>
       </c>
-      <c r="F283" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+      <c r="F283" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
@@ -6922,22 +6652,21 @@
         <v>283</v>
       </c>
       <c r="B284" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
       </c>
       <c r="C284" s="2">
         <v>56.750267234332526</v>
       </c>
       <c r="D284" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E284" s="2">
         <v>1.1926480406792006</v>
       </c>
-      <c r="F284" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+      <c r="F284" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
@@ -6945,22 +6674,21 @@
         <v>284</v>
       </c>
       <c r="B285" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
       </c>
       <c r="C285" s="2">
         <v>29.326000344610254</v>
       </c>
       <c r="D285" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="E285" s="2">
         <v>1.9955198140129085</v>
       </c>
-      <c r="F285" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+      <c r="F285" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
@@ -6968,22 +6696,21 @@
         <v>285</v>
       </c>
       <c r="B286" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
       </c>
       <c r="C286" s="2">
         <v>55.340111920006038</v>
       </c>
       <c r="D286" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E286" s="2">
         <v>1.2635074774981931</v>
       </c>
-      <c r="F286" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+      <c r="F286" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
@@ -6991,22 +6718,21 @@
         <v>286</v>
       </c>
       <c r="B287" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
       </c>
       <c r="C287" s="2">
         <v>59.272427415809162</v>
       </c>
       <c r="D287" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E287" s="2">
         <v>1.5031444189439296</v>
       </c>
-      <c r="F287" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+      <c r="F287" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
@@ -7014,22 +6740,21 @@
         <v>287</v>
       </c>
       <c r="B288" s="3">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
       <c r="C288" s="2">
         <v>54.313173701291916</v>
       </c>
       <c r="D288" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E288" s="2">
         <v>1.4968653916197234</v>
       </c>
-      <c r="F288" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+      <c r="F288" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
@@ -7037,22 +6762,21 @@
         <v>288</v>
       </c>
       <c r="B289" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="C289" s="2">
         <v>63.097943688931963</v>
       </c>
       <c r="D289" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E289" s="2">
         <v>1.8161323089437764</v>
       </c>
-      <c r="F289" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+      <c r="F289" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
@@ -7060,22 +6784,21 @@
         <v>289</v>
       </c>
       <c r="B290" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="C290" s="2">
         <v>52.5238030866307</v>
       </c>
       <c r="D290" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E290" s="2">
         <v>1.0772294266454541</v>
       </c>
-      <c r="F290" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+      <c r="F290" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
@@ -7083,22 +6806,21 @@
         <v>290</v>
       </c>
       <c r="B291" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
       </c>
       <c r="C291" s="2">
         <v>40.68369810132441</v>
       </c>
       <c r="D291" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E291" s="2">
         <v>1.5229496102614655</v>
       </c>
-      <c r="F291" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+      <c r="F291" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
@@ -7106,22 +6828,21 @@
         <v>291</v>
       </c>
       <c r="B292" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
       </c>
       <c r="C292" s="2">
         <v>43.808763130359786</v>
       </c>
       <c r="D292" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E292" s="2">
         <v>1.1818192358368205</v>
       </c>
-      <c r="F292" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+      <c r="F292" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
@@ -7129,22 +6850,21 @@
         <v>292</v>
       </c>
       <c r="B293" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="C293" s="2">
         <v>38.536040441267865</v>
       </c>
       <c r="D293" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E293" s="2">
         <v>1.2788066845031971</v>
       </c>
-      <c r="F293" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+      <c r="F293" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
@@ -7152,22 +6872,21 @@
         <v>293</v>
       </c>
       <c r="B294" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
       </c>
       <c r="C294" s="2">
         <v>52.940002230789005</v>
       </c>
       <c r="D294" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E294" s="2">
         <v>1.8736348530115665</v>
       </c>
-      <c r="F294" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+      <c r="F294" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
@@ -7175,22 +6894,21 @@
         <v>294</v>
       </c>
       <c r="B295" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
       </c>
       <c r="C295" s="2">
         <v>60.969668469101343</v>
       </c>
       <c r="D295" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E295" s="2">
         <v>1.08045127526553</v>
       </c>
-      <c r="F295" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+      <c r="F295" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
@@ -7198,22 +6916,21 @@
         <v>295</v>
       </c>
       <c r="B296" s="3">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
       <c r="C296" s="2">
         <v>39.509826818023996</v>
       </c>
       <c r="D296" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E296" s="2">
         <v>1.8545153965050889</v>
       </c>
-      <c r="F296" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+      <c r="F296" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
@@ -7221,22 +6938,21 @@
         <v>296</v>
       </c>
       <c r="B297" s="3">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C297" s="2">
         <v>60.894712169582611</v>
       </c>
       <c r="D297" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E297" s="2">
         <v>1.0558492024784556</v>
       </c>
-      <c r="F297" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+      <c r="F297" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
@@ -7244,22 +6960,21 @@
         <v>297</v>
       </c>
       <c r="B298" s="3">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v>4</v>
       </c>
       <c r="C298" s="2">
         <v>37.764841356715692</v>
       </c>
       <c r="D298" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E298" s="2">
         <v>1.461871449051618</v>
       </c>
-      <c r="F298" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+      <c r="F298" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
@@ -7267,22 +6982,21 @@
         <v>298</v>
       </c>
       <c r="B299" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
       </c>
       <c r="C299" s="2">
         <v>31.098914858672018</v>
       </c>
       <c r="D299" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E299" s="2">
         <v>1.5630825323511472</v>
       </c>
-      <c r="F299" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+      <c r="F299" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
@@ -7290,22 +7004,21 @@
         <v>299</v>
       </c>
       <c r="B300" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="C300" s="2">
         <v>45.697849647282361</v>
       </c>
       <c r="D300" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E300" s="2">
         <v>1.7006180315203709</v>
       </c>
-      <c r="F300" s="3">
-        <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+      <c r="F300" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
